--- a/Plan de trabajo.xlsx
+++ b/Plan de trabajo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan General" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,6 +143,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -151,92 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,29 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,25 +294,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,145 +408,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,15 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,6 +499,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +536,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,22 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,142 +596,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1093,7 +1093,7 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1372,8 +1372,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1438,14 +1438,14 @@
         <v>87</v>
       </c>
       <c r="F2" s="1">
-        <f>E2/C2</f>
+        <f t="shared" ref="F2:F7" si="0">E2/C2</f>
         <v>0.756521739130435</v>
       </c>
       <c r="G2">
         <v>28</v>
       </c>
       <c r="H2" s="1">
-        <f>G2/C2</f>
+        <f t="shared" ref="H2:H7" si="1">G2/C2</f>
         <v>0.243478260869565</v>
       </c>
       <c r="I2" s="4">
@@ -1470,18 +1470,18 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
-        <f>E3/C3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.708333333333333</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1">
-        <f>G3/C3</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.291666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1499,18 +1499,18 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
-        <f>E4/C4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.777777777777778</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
-        <f>G4/C4</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1528,18 +1528,18 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
-        <f>E5/C5</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.0346740638002774</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1">
-        <f>G5/C5</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.0485436893203883</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1560,14 +1560,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>G6/C6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1589,14 +1589,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>E7/C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>G7/C7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D9" s="1">
         <f>(SUM(E2:E7)+SUM(G2:G7))/C9</f>
-        <v>0.0882578664620107</v>
+        <v>0.203376822716807</v>
       </c>
     </row>
   </sheetData>
